--- a/player-analysis/server/customer_model_data/custom_kpi_data.csv.xlsx
+++ b/player-analysis/server/customer_model_data/custom_kpi_data.csv.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Divakar\Angular\MEAN\Validation\28Sept\prototype_login\customer_model_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectDocs\angular_projects\player-analysis\server\customer_model_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
   </numFmts>
@@ -128,10 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,7 +458,7 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +466,7 @@
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="22" max="22" width="11.42578125" customWidth="1"/>
     <col min="24" max="24" width="10.42578125" customWidth="1"/>
@@ -499,34 +502,34 @@
       <c r="C2">
         <v>70032</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -538,7 +541,7 @@
       <c r="C3">
         <v>18285</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -552,7 +555,7 @@
       <c r="C4">
         <v>60069</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="2"/>
@@ -577,7 +580,7 @@
       <c r="C5">
         <v>11640</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="2"/>
@@ -602,7 +605,7 @@
       <c r="C6" s="1">
         <v>10982142</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="2"/>
@@ -627,7 +630,7 @@
       <c r="C7" s="1">
         <v>40</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2"/>
@@ -652,7 +655,7 @@
       <c r="C8" s="1">
         <v>10982142</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="2"/>
@@ -677,7 +680,7 @@
       <c r="C9" s="1">
         <v>10982142</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="2"/>
@@ -702,7 +705,7 @@
       <c r="C10" s="1">
         <v>10982142</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2"/>
@@ -718,7 +721,6 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" s="2"/>
       <c r="J11" s="2"/>
